--- a/test/Book1.xlsx
+++ b/test/Book1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuri/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nabeyama/go/src/github.com/yoshhiide/excelize/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="6260" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="2720" yWindow="960" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -151,19 +151,19 @@
   <si>
     <t>Column2</t>
   </si>
+  <si>
+    <t>inlineStr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="General"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -191,6 +191,19 @@
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -234,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -248,13 +261,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -267,7 +282,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -305,7 +320,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -447,7 +462,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -571,7 +586,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -603,7 +618,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -617,7 +632,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -655,7 +670,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -746,7 +761,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -756,12 +771,19 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$C$2:$C$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>HP</c:v>
                 </c:pt>
@@ -784,12 +806,9 @@
                   <c:v>ASUS</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Apple</c:v>
+                  <c:v>SAMSUNG</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>SAMSUNG</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>Other</c:v>
                 </c:pt>
               </c:strCache>
@@ -800,7 +819,7 @@
               <c:f>Sheet2!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>200.0</c:v>
                 </c:pt>
@@ -823,12 +842,9 @@
                   <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>348.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>37.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -846,11 +862,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="754001152"/>
-        <c:axId val="753999904"/>
+        <c:axId val="1998013552"/>
+        <c:axId val="2046942000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="754001152"/>
+        <c:axId val="1998013552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,10 +906,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="753999904"/>
+        <c:crossAx val="2046942000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -901,7 +917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="753999904"/>
+        <c:axId val="2046942000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -948,10 +964,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="754001152"/>
+        <c:crossAx val="1998013552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -989,7 +1005,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2521,19 +2537,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A19:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A19:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="11" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" width="5" max="6" min="6"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2542,7 +2556,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>18</v>
       </c>
@@ -2550,12 +2564,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" customHeight="1" ht="25">
+    <row r="22" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B30:C33"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
   <hyperlinks>
     <hyperlink ref="A22" r:id="rId1"/>
   </hyperlinks>
@@ -2571,20 +2605,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="10.7109375" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" width="0.5" max="3" min="3"/>
-    <col max="7" min="7" style="0"/>
-    <col customWidth="1" width="0" max="9" min="9"/>
+    <col min="3" max="3" width="0.42578125" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2593,13 +2626,11 @@
         <v>2</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>inlineStr</t>
-        </is>
+      <c r="E1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2613,7 +2644,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2627,7 +2658,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2641,7 +2672,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -2655,7 +2686,8 @@
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
@@ -2663,7 +2695,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
@@ -2671,7 +2703,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
@@ -2679,7 +2711,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2" customHeight="1" ht="0">
+    <row r="9" spans="1:9" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
@@ -2687,7 +2719,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
@@ -2695,33 +2727,39 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="4" t="str">
-        <v>Other</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="4">
         <v>37</v>
       </c>
       <c r="E11" s="4">
-        <f t="normal">B2+B3</f>
+        <f>B2+B3</f>
+        <v>43</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ref="F11:H11" si="0">IF(B2&gt;0, (D2/B2)*100, 0)</f>
+        <v>1052.6315789473686</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" ref="G11:I11" si="1">IF(B2&gt;0, (D2/B2)*100, 0)</f>
+        <v>1052.6315789473686</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A6"/>
   </mergeCells>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test/Book1.xlsx
+++ b/test/Book1.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuri/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="6260" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView windowWidth="28160" windowHeight="11560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -31,16 +26,16 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
           <t>Hyperlink test</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Calibri"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -52,14 +47,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>inlineStr</t>
+  </si>
+  <si>
+    <t>&gt; 23 Inch</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>20-23 Inch</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>17-20 Inch</t>
+  </si>
+  <si>
+    <t>Lenove</t>
+  </si>
+  <si>
+    <t>&lt; 17 Inch</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微軟正黑體"/>
-        <family val="2"/>
         <charset val="136"/>
       </rPr>
       <t>I</t>
@@ -69,7 +111,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微軟正黑體"/>
-        <family val="2"/>
         <charset val="136"/>
       </rPr>
       <t>B</t>
@@ -79,113 +120,213 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微軟正黑體"/>
-        <family val="2"/>
         <charset val="136"/>
       </rPr>
       <t>M</t>
     </r>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Monitor</t>
+    <t>ASUS</t>
   </si>
   <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>20-23 Inch</t>
-  </si>
-  <si>
-    <t>17-20 Inch</t>
-  </si>
-  <si>
-    <t>&lt; 17 Inch</t>
-  </si>
-  <si>
-    <t>&gt; 23 Inch</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>DELL</t>
-  </si>
-  <si>
-    <t>Lenove</t>
+    <t>Apple</t>
   </si>
   <si>
     <t>SAMSUNG</t>
   </si>
   <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>ASUS</t>
-  </si>
-  <si>
-    <t>Acer</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>GitHub</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +339,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -209,24 +536,266 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
+        <color theme="2" tint="-0.0999481185338908"/>
       </left>
       <right style="thin">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
+        <color theme="2" tint="-0.0999481185338908"/>
       </right>
       <top style="thin">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
+        <color theme="2" tint="-0.0999481185338908"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
+        <color theme="2" tint="-0.0999481185338908"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -240,12 +809,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -259,7 +876,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -285,7 +902,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -297,7 +914,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -320,6 +936,8 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr/>
+          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -430,7 +1048,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
@@ -439,7 +1057,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -449,22 +1066,23 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -495,16 +1113,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,7 +1169,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -563,7 +1181,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -593,9 +1210,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -609,7 +1225,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -635,7 +1251,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -647,7 +1263,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -726,7 +1341,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -738,7 +1353,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -748,12 +1362,33 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$C$2:$C$11</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>HP</c:v>
                 </c:pt>
@@ -776,12 +1411,9 @@
                   <c:v>ASUS</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Apple</c:v>
+                  <c:v>SAMSUNG</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>SAMSUNG</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>Other</c:v>
                 </c:pt>
               </c:strCache>
@@ -792,43 +1424,39 @@
               <c:f>Sheet2!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>450.0</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>510.0</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>315.0</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127.0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>348.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -870,7 +1498,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -882,7 +1510,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="753999904"/>
@@ -913,6 +1540,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -928,7 +1556,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -940,7 +1568,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="754001152"/>
@@ -979,9 +1606,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2176,7 +2802,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2190,14 +2816,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="6350"/>
+        <a:ext cx="5016500" cy="2843530"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2220,14 +2846,14 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="5175250" y="6350"/>
+        <a:ext cx="7131050" cy="2843530"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2294,7 +2920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2329,7 +2955,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2503,139 +3129,133 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A19:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
-    <col customWidth="1" width="5" max="6" min="6"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <f>SUM(Sheet2!D2,Sheet2!D11)</f>
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" customHeight="1" ht="25">
+    <row r="22" ht="25" customHeight="1" spans="1:1">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1"/>
+    <hyperlink ref="A22" r:id="rId5" display="GitHub"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <picture r:id="rId4"/>
+  <picture r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" width="0.5" max="3" min="3"/>
-    <col max="7" min="7" style="0"/>
-    <col customWidth="1" width="0" max="9" min="9"/>
+    <col min="3" max="3" width="0.5" customWidth="1"/>
+    <col min="9" max="9" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>inlineStr</t>
-        </is>
+      <c r="E1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4">
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>21</v>
@@ -2647,73 +3267,82 @@
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
+      <c r="A6" s="5"/>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4">
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" ht="16" spans="1:4">
+      <c r="A7" s="5"/>
       <c r="C7" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:4">
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2" customHeight="1" ht="0">
+    <row r="9" hidden="1" customHeight="1" spans="3:4">
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4">
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
+      <c r="A10" s="5"/>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="4" t="str">
-        <v>Other</v>
+    <row r="11" spans="3:9">
+      <c r="C11" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="4">
         <v>37</v>
       </c>
       <c r="E11" s="4">
-        <f t="normal">B2+B3</f>
+        <f>B2+B3</f>
+        <v>0</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" ref="F11:H11" si="0">IF(B2&gt;0, (D2/B2)*100, 0)</f>
+        <f t="shared" ref="F11:H11" si="0">IF(B2&gt;0,(D2/B2)*100,0)</f>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" ref="G11:I11" si="1">IF(B2&gt;0, (D2/B2)*100, 0)</f>
+        <f t="shared" ref="G11:I11" si="1">IF(B2&gt;0,(D2/B2)*100,0)</f>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A6"/>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/test/Book1.xlsx
+++ b/test/Book1.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuri/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28160" windowHeight="11560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="13220" yWindow="6260" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -26,16 +31,16 @@
           <rPr>
             <b/>
             <sz val="10"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
-            <charset val="134"/>
           </rPr>
           <t>Hyperlink test</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -47,7 +52,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>20-23 Inch</t>
+  </si>
+  <si>
+    <t>17-20 Inch</t>
+  </si>
+  <si>
+    <t>&lt; 17 Inch</t>
+  </si>
+  <si>
+    <t>&gt; 23 Inch</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>Lenove</t>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>ASUS</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
   <si>
     <t>Total:</t>
   </si>
@@ -57,276 +143,49 @@
   <si>
     <t>Column2</t>
   </si>
-  <si>
-    <t>GitHub</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>inlineStr</t>
-  </si>
-  <si>
-    <t>&gt; 23 Inch</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>20-23 Inch</t>
-  </si>
-  <si>
-    <t>DELL</t>
-  </si>
-  <si>
-    <t>17-20 Inch</t>
-  </si>
-  <si>
-    <t>Lenove</t>
-  </si>
-  <si>
-    <t>&lt; 17 Inch</t>
-  </si>
-  <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>Acer</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>M</t>
-    </r>
-  </si>
-  <si>
-    <t>ASUS</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>SAMSUNG</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <charset val="136"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,194 +198,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -536,266 +209,24 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="2" tint="-0.0999481185338908"/>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
       </left>
       <right style="thin">
-        <color theme="2" tint="-0.0999481185338908"/>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
       </right>
       <top style="thin">
-        <color theme="2" tint="-0.0999481185338908"/>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.0999481185338908"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -809,60 +240,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -876,7 +259,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -902,7 +285,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -914,6 +297,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -936,8 +320,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr/>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -1048,7 +430,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
@@ -1057,6 +439,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1066,23 +449,22 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1113,16 +495,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,7 +551,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -1181,6 +563,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1210,8 +593,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="zh-CN"/>
+        <a:defRPr/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1225,7 +609,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1251,7 +635,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1263,6 +647,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1341,7 +726,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1353,6 +738,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1362,33 +748,12 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$C$2:$C$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>HP</c:v>
                 </c:pt>
@@ -1411,9 +776,12 @@
                   <c:v>ASUS</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Apple</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>SAMSUNG</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Other</c:v>
                 </c:pt>
               </c:strCache>
@@ -1424,39 +792,43 @@
               <c:f>Sheet2!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>450</c:v>
+                  <c:v>450.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>510</c:v>
+                  <c:v>510.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>315</c:v>
+                  <c:v>315.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127</c:v>
+                  <c:v>127.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53</c:v>
+                  <c:v>348.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37</c:v>
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1498,7 +870,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1510,6 +882,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="753999904"/>
@@ -1540,7 +913,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1556,7 +928,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1568,6 +940,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="754001152"/>
@@ -1606,8 +979,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="zh-CN"/>
+        <a:defRPr/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2802,7 +2176,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2816,14 +2190,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="6350"/>
-        <a:ext cx="5016500" cy="2843530"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2846,14 +2220,14 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5175250" y="6350"/>
-        <a:ext cx="7131050" cy="2843530"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2920,7 +2294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2955,7 +2329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -3129,133 +2503,139 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A19:D22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="6" max="6" width="5" customWidth="1"/>
+    <col customWidth="1" width="5" max="6" min="6"/>
   </cols>
   <sheetData>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <f>SUM(Sheet2!D2,Sheet2!D11)</f>
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="1:4">
       <c r="C21" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="22" ht="25" customHeight="1" spans="1:1">
+    <row r="22" spans="1:4" customHeight="1" ht="25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId5" display="GitHub"/>
+    <hyperlink ref="A22" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <picture r:id="rId6"/>
+  <picture r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="0.5" customWidth="1"/>
-    <col min="9" max="9" width="9" hidden="1" customWidth="1"/>
+    <col customWidth="1" width="0.5" max="3" min="3"/>
+    <col max="7" min="7" style="0"/>
+    <col customWidth="1" width="0" max="9" min="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" t="s">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>inlineStr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4">
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>21</v>
@@ -3267,82 +2647,73 @@
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4">
         <v>315</v>
       </c>
     </row>
-    <row r="7" ht="16" spans="1:4">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="9" hidden="1" customHeight="1" spans="3:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2" customHeight="1" ht="0">
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4">
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D10" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="3:9">
-      <c r="C11" s="4" t="s">
-        <v>20</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="4" t="str">
+        <v>Other</v>
       </c>
       <c r="D11" s="4">
         <v>37</v>
       </c>
       <c r="E11" s="4">
-        <f>B2+B3</f>
-        <v>0</v>
+        <f t="normal">B2+B3</f>
       </c>
       <c r="F11" s="4">
-        <f t="shared" ref="F11:H11" si="0">IF(B2&gt;0,(D2/B2)*100,0)</f>
-        <v>0</v>
+        <f t="shared" ref="F11:H11" si="0">IF(B2&gt;0, (D2/B2)*100, 0)</f>
       </c>
       <c r="G11" s="4">
-        <f t="shared" ref="G11:I11" si="1">IF(B2&gt;0,(D2/B2)*100,0)</f>
-        <v>0</v>
+        <f t="shared" ref="G11:I11" si="1">IF(B2&gt;0, (D2/B2)*100, 0)</f>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:A7"/>
+  <mergeCells>
+    <mergeCell ref="A6"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>